--- a/Arbeitsstunden_Reiter.xlsx
+++ b/Arbeitsstunden_Reiter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e6c83944bf9f408/Desktop/da_schrift/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HTL\5. Klasse\SYP\DA Schrift\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="13_ncr:1_{EF4B6A76-7DF5-41F0-8669-0E61D135AEA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{98B570C4-5D17-402E-B185-1672C72016CF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A4E2B0-A951-4AA5-9601-A71F440FC8B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5280" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -446,17 +446,17 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -467,9 +467,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>44075</v>
+        <v>44067</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -478,7 +478,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44110</v>
       </c>
@@ -489,7 +489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44112</v>
       </c>
@@ -500,7 +500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44114</v>
       </c>
@@ -511,7 +511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44122</v>
       </c>
@@ -522,7 +522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44181</v>
       </c>
@@ -533,7 +533,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44192</v>
       </c>
@@ -544,7 +544,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44223</v>
       </c>
@@ -555,7 +555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44237</v>
       </c>
@@ -566,7 +566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44259</v>
       </c>
@@ -577,7 +577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44265</v>
       </c>
@@ -588,7 +588,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44272</v>
       </c>
@@ -599,7 +599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44280</v>
       </c>
@@ -610,7 +610,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
@@ -618,7 +618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>3</v>
       </c>
